--- a/src/test/input.xlsx
+++ b/src/test/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Khanbin\activities\SAP BTP Hackathon 2024\collate-project\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FCC00-5D21-4821-A817-CEE26A9A696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09A902-F1BA-4C70-A805-6ECFAD36D212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9740B8F-295F-4070-95BC-5B2FEA64D0BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TNVEDNAME</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Корзиночные, плетеные и другие изделия, изготовленные непосредственно по форме из материалов для плетения или из товаров товарной позиции 4601; изделия из люфы</t>
+  </si>
+  <si>
+    <t>Прокат плоский из железа или нелегированной стали шириной 600 мм или более, холоднокатаный (обжатый в холодном состоянии), неплакированный, без гальванического или другого покрытия:</t>
+  </si>
+  <si>
+    <t>Свинец рафинированный</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052FCF8-3A47-4A90-A1CC-EC29840C9523}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +491,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>90000</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
